--- a/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>27938</v>
+        <v>27939</v>
       </c>
       <c r="D50" t="n">
         <v>5065</v>
       </c>
       <c r="E50" t="n">
-        <v>131491278</v>
+        <v>131501278</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="D53" t="n">
         <v>594</v>
       </c>
       <c r="E53" t="n">
-        <v>75292782</v>
+        <v>75312901</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5755,13 +5755,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D105" t="n">
         <v>207</v>
       </c>
       <c r="E105" t="n">
-        <v>66418625</v>
+        <v>66534816</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -18097,13 +18097,13 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>14340</v>
+        <v>14345</v>
       </c>
       <c r="D347" t="n">
         <v>2812</v>
       </c>
       <c r="E347" t="n">
-        <v>36138048</v>
+        <v>36146424</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5195</v>
+        <v>5196</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>20316077</v>
+        <v>20331329</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>15717</v>
+        <v>15723</v>
       </c>
       <c r="D354" t="n">
         <v>2768</v>
       </c>
       <c r="E354" t="n">
-        <v>24651442</v>
+        <v>24657676</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -18658,13 +18658,13 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D358" t="n">
         <v>150</v>
       </c>
       <c r="E358" t="n">
-        <v>4168041</v>
+        <v>4175586</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
@@ -19321,13 +19321,13 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>52623</v>
+        <v>52625</v>
       </c>
       <c r="D371" t="n">
         <v>9850</v>
       </c>
       <c r="E371" t="n">
-        <v>203760363</v>
+        <v>203788116</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
@@ -21922,13 +21922,13 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>10091</v>
+        <v>10093</v>
       </c>
       <c r="D422" t="n">
         <v>1498</v>
       </c>
       <c r="E422" t="n">
-        <v>101569612</v>
+        <v>101653054</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61050</v>
+        <v>61054</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>220811503</v>
+        <v>220836435</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163459</v>
+        <v>163472</v>
       </c>
       <c r="D434" t="n">
-        <v>25453</v>
+        <v>25454</v>
       </c>
       <c r="E434" t="n">
-        <v>709843761</v>
+        <v>709991958</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50588</v>
+        <v>50591</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>540533687</v>
+        <v>540743208</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30918</v>
+        <v>30923</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>593528580</v>
+        <v>593751363</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22840,13 +22840,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D440" t="n">
         <v>97</v>
       </c>
       <c r="E440" t="n">
-        <v>70502264</v>
+        <v>70690419</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -23044,13 +23044,13 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D444" t="n">
         <v>9</v>
       </c>
       <c r="E444" t="n">
-        <v>5553564</v>
+        <v>6353564</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>54763975</v>
+        <v>55013027</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>5380</v>
+        <v>5383</v>
       </c>
       <c r="D491" t="n">
         <v>918</v>
       </c>
       <c r="E491" t="n">
-        <v>44456358</v>
+        <v>44527052</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -25798,13 +25798,13 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>8164</v>
+        <v>8168</v>
       </c>
       <c r="D498" t="n">
         <v>1913</v>
       </c>
       <c r="E498" t="n">
-        <v>16862003</v>
+        <v>16867318</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -25849,13 +25849,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>18333</v>
+        <v>18336</v>
       </c>
       <c r="D499" t="n">
         <v>4979</v>
       </c>
       <c r="E499" t="n">
-        <v>41276024</v>
+        <v>41281761</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -25900,13 +25900,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6384</v>
+        <v>6386</v>
       </c>
       <c r="D500" t="n">
         <v>1894</v>
       </c>
       <c r="E500" t="n">
-        <v>21931803</v>
+        <v>21935846</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -26053,13 +26053,13 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D503" t="n">
         <v>71</v>
       </c>
       <c r="E503" t="n">
-        <v>16373789</v>
+        <v>16566525</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -26104,13 +26104,13 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D504" t="n">
         <v>17</v>
       </c>
       <c r="E504" t="n">
-        <v>7544279</v>
+        <v>7718509</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -26308,13 +26308,13 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>11685</v>
+        <v>11689</v>
       </c>
       <c r="D508" t="n">
         <v>2248</v>
       </c>
       <c r="E508" t="n">
-        <v>32906669</v>
+        <v>32938514</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
@@ -29266,13 +29266,13 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="D566" t="n">
         <v>615</v>
       </c>
       <c r="E566" t="n">
-        <v>15757636</v>
+        <v>15762604</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -29368,13 +29368,13 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D568" t="n">
         <v>81</v>
       </c>
       <c r="E568" t="n">
-        <v>7471532</v>
+        <v>7493764</v>
       </c>
       <c r="F568" t="inlineStr">
         <is>
@@ -32122,13 +32122,13 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>8135</v>
+        <v>8139</v>
       </c>
       <c r="D622" t="n">
         <v>1636</v>
       </c>
       <c r="E622" t="n">
-        <v>30829272</v>
+        <v>30850840</v>
       </c>
       <c r="F622" t="inlineStr">
         <is>
@@ -39364,13 +39364,13 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>31964</v>
+        <v>31965</v>
       </c>
       <c r="D764" t="n">
         <v>6525</v>
       </c>
       <c r="E764" t="n">
-        <v>137934931</v>
+        <v>137944931</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -39415,13 +39415,13 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>14887</v>
+        <v>14888</v>
       </c>
       <c r="D765" t="n">
         <v>2736</v>
       </c>
       <c r="E765" t="n">
-        <v>89232661</v>
+        <v>89234161</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -40843,13 +40843,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="D793" t="n">
         <v>671</v>
       </c>
       <c r="E793" t="n">
-        <v>5191676</v>
+        <v>5195215</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -42424,13 +42424,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>28683</v>
+        <v>28684</v>
       </c>
       <c r="D824" t="n">
         <v>5058</v>
       </c>
       <c r="E824" t="n">
-        <v>166285226</v>
+        <v>166433990</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>
@@ -42526,13 +42526,13 @@
         </is>
       </c>
       <c r="C826" t="n">
-        <v>5312</v>
+        <v>5313</v>
       </c>
       <c r="D826" t="n">
         <v>803</v>
       </c>
       <c r="E826" t="n">
-        <v>83587630</v>
+        <v>83608561</v>
       </c>
       <c r="F826" t="inlineStr">
         <is>
@@ -43648,13 +43648,13 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D848" t="n">
         <v>151</v>
       </c>
       <c r="E848" t="n">
-        <v>37773392</v>
+        <v>37809019</v>
       </c>
       <c r="F848" t="inlineStr">
         <is>
